--- a/data/pyxl-Sample3.xlsx
+++ b/data/pyxl-Sample3.xlsx
@@ -6,31 +6,32 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted21" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted20" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted19" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted18" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted17" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted16" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted15" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted14" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted13" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted12" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted10" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted9" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted8" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted7" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted6" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted5" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted4" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted3" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted2" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted21" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted20" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted19" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted18" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted17" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted16" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted13" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted12" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted10" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted9" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted8" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted6" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted5" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted4" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted3" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted2" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -456,6 +457,108 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -560,7 +663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -662,7 +765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -772,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -874,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -984,7 +1087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1086,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +1401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +1723,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1722,7 +1935,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1824,219 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="n">
-        <v>42099.56530092593</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>42099.15373842593</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cherries</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>42100.53253472222</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pears</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>42102.37480324074</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>42104.08819444444</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>42104.75737268518</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>42104.11164351852</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Strawberries</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="n">
-        <v>42099.56530092593</v>
-      </c>
-      <c r="B1" s="4" t="n">
-        <v>42099.15373842593</v>
-      </c>
-      <c r="C1" s="4" t="n">
-        <v>42100.53253472222</v>
-      </c>
-      <c r="D1" s="4" t="n">
-        <v>42102.37480324074</v>
-      </c>
-      <c r="E1" s="4" t="n">
-        <v>42104.08819444444</v>
-      </c>
-      <c r="F1" s="4" t="n">
-        <v>42104.75737268518</v>
-      </c>
-      <c r="G1" s="4" t="n">
-        <v>42104.11164351852</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cherries</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pears</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Strawberries</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>73</v>
-      </c>
-      <c r="B3" t="n">
-        <v>85</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52</v>
-      </c>
-      <c r="E3" t="n">
-        <v>152</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23</v>
-      </c>
-      <c r="G3" t="n">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2150,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2168,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2192,6 +2303,108 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2296,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2398,7 +2611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2508,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2720,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2820,114 +3033,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="n">
-        <v>42099.56530092593</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>42099.15373842593</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cherries</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>42100.53253472222</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pears</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>42102.37480324074</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>42104.08819444444</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>42104.75737268518</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>42104.11164351852</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Strawberries</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>